--- a/NRCS.WebPresence.Arizona/ApplicationTestData/AppData.xlsx
+++ b/NRCS.WebPresence.Arizona/ApplicationTestData/AppData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="6360" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5403" uniqueCount="5223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5410" uniqueCount="5228">
   <si>
     <t>main/mt/about/</t>
   </si>
@@ -15718,20 +15718,28 @@
   </si>
   <si>
     <t>mt/newsroom/releases/</t>
+  </si>
+  <si>
+    <t>in/home</t>
+  </si>
+  <si>
+    <t>az/home</t>
+  </si>
+  <si>
+    <t>ia/home</t>
+  </si>
+  <si>
+    <t>mo/home</t>
+  </si>
+  <si>
+    <t>mt/home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15773,7 +15781,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16054,737 +16062,741 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="A77" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="94.88671875" customWidth="1"/>
     <col min="2" max="2" width="76.88671875" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5015</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5016</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>5017</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5018</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5019</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5020</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5021</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5022</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4328</v>
+        <v>5023</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>5024</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>5025</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>5026</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>5027</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>5028</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>5029</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>5030</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>5031</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>5032</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>5033</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>5123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>5034</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>5035</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>5036</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>5126</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>5037</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>5038</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>5039</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>5129</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>5040</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>5041</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>4329</v>
+        <v>5042</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>5132</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>5043</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>5044</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4330</v>
+        <v>5045</v>
       </c>
       <c r="B31" t="s">
-        <v>171</v>
+        <v>5135</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>5046</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>5047</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>5048</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>5049</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>5050</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>5051</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>5141</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>5052</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>5053</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>5054</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>5144</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>5055</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>5056</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>5057</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>5058</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>4331</v>
+        <v>5059</v>
       </c>
       <c r="B45" t="s">
-        <v>5222</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>4428</v>
+        <v>5060</v>
       </c>
       <c r="B46" t="s">
-        <v>4429</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>5061</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>5062</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>5063</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>5152</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>5064</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>5065</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>5066</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>5155</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>5067</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>5068</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>5069</v>
       </c>
       <c r="B55" t="s">
-        <v>135</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>5070</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>5071</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>5072</v>
       </c>
       <c r="B58" t="s">
-        <v>138</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>5073</v>
       </c>
       <c r="B59" t="s">
-        <v>139</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>5074</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>5075</v>
       </c>
       <c r="B61" t="s">
-        <v>141</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>5076</v>
       </c>
       <c r="B62" t="s">
-        <v>142</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>5077</v>
       </c>
       <c r="B63" t="s">
-        <v>143</v>
+        <v>5166</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>5078</v>
       </c>
       <c r="B64" t="s">
-        <v>144</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>5079</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>5080</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>5081</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>5082</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>5083</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>5084</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>5085</v>
       </c>
       <c r="B71" t="s">
-        <v>151</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>5086</v>
       </c>
       <c r="B72" t="s">
-        <v>152</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>5087</v>
       </c>
       <c r="B73" t="s">
-        <v>153</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>5088</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>5089</v>
       </c>
       <c r="B75" t="s">
-        <v>155</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>5090</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>5091</v>
       </c>
       <c r="B77" t="s">
-        <v>157</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>5092</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>5093</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>5094</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>5095</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>5096</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>5097</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>5098</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>5099</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>5100</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>5101</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>5102</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>5103</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>5104</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>5224</v>
       </c>
     </row>
   </sheetData>
@@ -24184,29 +24196,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -33085,10 +33102,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B22" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33817,6 +33834,11 @@
         <v>170</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>5227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33824,10 +33846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B37" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34556,6 +34578,11 @@
         <v>5193</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>5224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34563,10 +34590,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35295,6 +35322,11 @@
         <v>5014</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>5223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35302,10 +35334,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B28" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A75" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36034,6 +36066,11 @@
         <v>4835</v>
       </c>
     </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>5225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36041,10 +36078,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
+    <sheetView topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A68" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36771,6 +36808,11 @@
       </c>
       <c r="B90" t="s">
         <v>4656</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>5226</v>
       </c>
     </row>
   </sheetData>
